--- a/ся.xlsx
+++ b/ся.xlsx
@@ -4,894 +4,1344 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="пассивный" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="с вложениями" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="схемы заработка" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="способы и методы заработка" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="без вложений" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="мобайл" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="фриланс" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="арбитраж" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Заработок на сайте" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="для новичков" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="реальный заработок" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="заработок с выводом" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="заработок в интернете" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="пассивный" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="с вложениями" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="схемы заработка" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="способы и методы заработка" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="без вложений" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="заработок на соц сетях" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="партнерские программы" sheetId="12" r:id="rId15"/>
+    <sheet state="visible" name="мобайл" sheetId="13" r:id="rId16"/>
+    <sheet state="visible" name="фриланс" sheetId="14" r:id="rId17"/>
+    <sheet state="visible" name="арбитраж" sheetId="15" r:id="rId18"/>
+    <sheet state="visible" name="Заработок на сайте" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Лист1'!$A$1:$A$1872</definedName>
+    <definedName hidden="1" localSheetId="4" name="_xlnm._FilterDatabase">'заработок в интернете'!$A$1:$A$31</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="458">
+  <si>
+    <t>заработок +для новичков</t>
+  </si>
+  <si>
+    <t>заработок +в интернете отзывы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">честный заработок +в интернете	</t>
+  </si>
+  <si>
+    <t>1389</t>
+  </si>
+  <si>
+    <t>10619</t>
+  </si>
+  <si>
+    <t>в тексте</t>
+  </si>
+  <si>
+    <t>1214</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +для новичка</t>
+  </si>
+  <si>
+    <t>635</t>
+  </si>
+  <si>
+    <t>способы заработка +в интернете новичку</t>
+  </si>
+  <si>
+    <t>реальный заработок +в интернете</t>
+  </si>
+  <si>
+    <t>16486</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>реальный заработок +в интернете +с выводом</t>
+  </si>
+  <si>
+    <t>7095</t>
+  </si>
+  <si>
+    <t>способы заработка +для новичков</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +на дому без обмана</t>
+  </si>
+  <si>
+    <t>заработок киви денег +в интернете</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8	</t>
+  </si>
+  <si>
+    <t>1106</t>
+  </si>
+  <si>
+    <t>курсы +по заработку +в интернете</t>
+  </si>
+  <si>
+    <t>282</t>
+  </si>
+  <si>
+    <t>1130</t>
+  </si>
+  <si>
+    <t>10 заработка +в интернете</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>как быстро заработать +в интернете новичку</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00	</t>
+  </si>
+  <si>
+    <t>5248</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +на играх</t>
+  </si>
+  <si>
+    <t>1296</t>
+  </si>
+  <si>
+    <t>виды заработка +в интернете</t>
+  </si>
+  <si>
+    <t>1485</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без обмана</t>
+  </si>
+  <si>
+    <t>как реально заработать +в интернете новичку</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +для школьников</t>
+  </si>
+  <si>
+    <t>18364</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>сайт заработок +в интернете без обмана</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>как заработать +в интернете новичку</t>
+  </si>
+  <si>
+    <t>заработок денег +в интернете без обмана</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>9647</t>
+  </si>
+  <si>
+    <t>сервисы +для заработка +в интернете</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>реальный заработок +в интернете без</t>
+  </si>
+  <si>
+    <t>9891</t>
+  </si>
+  <si>
+    <t>заработок +в интернете обман</t>
+  </si>
+  <si>
+    <t>заработок реальных денег +в интернете</t>
+  </si>
+  <si>
+    <t>18518</t>
+  </si>
+  <si>
+    <t>точно</t>
+  </si>
+  <si>
+    <t>6008</t>
+  </si>
+  <si>
+    <t>заработок +в интернете 1000</t>
+  </si>
+  <si>
+    <t>как начать зарабатывать новичку</t>
+  </si>
+  <si>
+    <t>3689</t>
+  </si>
+  <si>
+    <t>title:</t>
+  </si>
+  <si>
+    <t>толока заработок +в интернете</t>
+  </si>
+  <si>
+    <t>3690</t>
+  </si>
+  <si>
+    <t>как заработать новичку дома</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без</t>
+  </si>
+  <si>
+    <t>106479</t>
+  </si>
+  <si>
+    <t>лучшие сайты +для заработка +в интернете</t>
+  </si>
+  <si>
+    <t>1065</t>
+  </si>
+  <si>
+    <t>суть заработка +в интернете</t>
+  </si>
+  <si>
+    <t>806</t>
+  </si>
+  <si>
+    <t>биржа заработок +в интернете</t>
+  </si>
+  <si>
+    <t>как заработать деньги быстро +с нуля новичку</t>
+  </si>
+  <si>
+    <t>825</t>
+  </si>
+  <si>
+    <t>заработок денег +в интернете +на опросах</t>
+  </si>
+  <si>
+    <t>как заработать деньги новичку +с нуля</t>
+  </si>
+  <si>
+    <t>839</t>
+  </si>
+  <si>
+    <t>сайты +для заработка +в интернете</t>
+  </si>
+  <si>
+    <t>7120</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без сайта</t>
+  </si>
+  <si>
+    <t>6408</t>
+  </si>
+  <si>
+    <t>как заработать быстро новичку</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +на просмотре</t>
+  </si>
+  <si>
+    <t>929</t>
+  </si>
+  <si>
+    <t>как можно заработать +в интернете новичку</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без рекламы</t>
+  </si>
+  <si>
+    <t>903</t>
+  </si>
+  <si>
+    <t>как начать зарабатывать +в интернете новичку</t>
+  </si>
+  <si>
+    <t>автоматический заработок +в интернете</t>
+  </si>
+  <si>
+    <t>934</t>
+  </si>
+  <si>
+    <t>заработок +в интернете 1000 рублей +в день</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +для начинающих</t>
+  </si>
+  <si>
+    <t>993</t>
+  </si>
+  <si>
+    <t>952</t>
+  </si>
+  <si>
+    <t>тайтл</t>
+  </si>
+  <si>
+    <t>description:</t>
+  </si>
+  <si>
+    <t>дескрипшин</t>
+  </si>
+  <si>
+    <t>title:Как заработать в интернете новичку, заработок денег для начинающих с нуля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description:Мы поделимся с вами способами заработка в интернете для новичков и начинающих, расскажем как реально начать зарабатывать у себя дома </t>
+  </si>
+  <si>
+    <t>как заработать +в интернете прямо сейчас</t>
+  </si>
+  <si>
+    <t>7060</t>
+  </si>
+  <si>
+    <t>как заработать +в интернете школьнику</t>
+  </si>
+  <si>
+    <t>6807</t>
+  </si>
+  <si>
+    <t>как зарабатывать +в интернете школьнику</t>
+  </si>
+  <si>
+    <t>как зарабатывать +в интернете без обмана</t>
+  </si>
+  <si>
+    <t>1 171</t>
+  </si>
+  <si>
+    <t>заработок +в интернете через интернет</t>
+  </si>
+  <si>
+    <t>1322</t>
+  </si>
+  <si>
+    <t>онлайн заработок +в интернете</t>
+  </si>
+  <si>
+    <t>1559</t>
+  </si>
+  <si>
+    <t>работа заработок +в интернете</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>про заработок +в интернете</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>заработок +в интернете</t>
+  </si>
+  <si>
+    <t>267531</t>
+  </si>
+  <si>
+    <t>заработок денег +в интернете</t>
+  </si>
+  <si>
+    <t>39359</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +на дому</t>
+  </si>
+  <si>
+    <t>10100</t>
+  </si>
+  <si>
+    <t>заработок без денег +в интернете</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>заработок +в интернете помощь</t>
+  </si>
+  <si>
+    <t>810</t>
+  </si>
+  <si>
+    <t>заработки +в интернете +в день</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с нуля</t>
+  </si>
+  <si>
+    <t>886</t>
+  </si>
+  <si>
+    <t>заработок +в интернете деньги +на карту</t>
+  </si>
+  <si>
+    <t>14882</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без регистрации</t>
+  </si>
+  <si>
+    <t>931</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с выводом +на карту</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +как зарабатывать</t>
+  </si>
+  <si>
+    <t>15139</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +на карту</t>
+  </si>
+  <si>
+    <t>15912</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +как заработать</t>
+  </si>
+  <si>
+    <t>1326</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с ежедневной оплатой</t>
+  </si>
+  <si>
+    <t>1623</t>
+  </si>
+  <si>
+    <t>как зарабатывать деньги +в интернете</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с выводом +на киви</t>
+  </si>
+  <si>
+    <t>81411</t>
+  </si>
+  <si>
+    <t>1636</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с выводом денег</t>
+  </si>
+  <si>
+    <t>31768</t>
+  </si>
+  <si>
+    <t>где заработать денег +в интернете</t>
+  </si>
+  <si>
+    <t>7623</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с выводом</t>
+  </si>
+  <si>
+    <t>где зарабатывать деньги +в интернете</t>
+  </si>
+  <si>
+    <t>43122</t>
+  </si>
+  <si>
+    <t>как зарабатывать +в интернете +с нуля</t>
+  </si>
+  <si>
+    <t>5 205</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +на карту сбербанка</t>
+  </si>
+  <si>
+    <t>6066</t>
+  </si>
+  <si>
+    <t>как заработать +в интернете +с нуля</t>
+  </si>
+  <si>
+    <t>заработок +в интернете игры +с выводом</t>
+  </si>
+  <si>
+    <t>как можно реально заработать деньги +в интернете</t>
+  </si>
+  <si>
+    <t>1008</t>
+  </si>
+  <si>
+    <t>4 890</t>
+  </si>
+  <si>
+    <t>как можно зарабатывать +в интернете реальные деньги</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +на qiwi кошелек</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>как зарабатывать дома +в интернете</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +на опросах +с выводом</t>
+  </si>
+  <si>
+    <t>4 871</t>
+  </si>
+  <si>
+    <t>879</t>
+  </si>
+  <si>
+    <t>быстрый заработок +в интернете +с выводом</t>
+  </si>
+  <si>
+    <t>как сейчас заработать деньги +в интернете</t>
+  </si>
+  <si>
+    <t>4 040</t>
+  </si>
+  <si>
+    <t>как бесплатно зарабатывать +в интернете заработать</t>
+  </si>
+  <si>
+    <t>1 987</t>
+  </si>
+  <si>
+    <t>как заработать +в интернете бесплатно</t>
+  </si>
+  <si>
+    <t>как зарабатывать +в интернете бесплатно</t>
+  </si>
+  <si>
+    <t>как зарабатывать деньги дома +в интернете</t>
+  </si>
+  <si>
+    <t>1 243</t>
+  </si>
+  <si>
+    <t>как заработать деньги дома +в интернете</t>
+  </si>
+  <si>
+    <t>как заработать реальные деньги +в интернете быстро</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>как зарабатывать деньги +в интернете бесплатно</t>
+  </si>
+  <si>
+    <t>960</t>
+  </si>
+  <si>
+    <t>title:онлайн заработок в интернете, как зарабатывать деньги дома через интернет</t>
+  </si>
+  <si>
+    <t>description:Зарабатывать деньги в интернете можно не выходя из дома, мы расскажем как можно быстро организовать заработок реальных денег с нуля прямо сейчас</t>
+  </si>
   <si>
     <t>заработок +в интернете +с вложением денег</t>
   </si>
   <si>
-    <t>заработок +для новичков</t>
+    <t>пассивный заработок +в интернете</t>
   </si>
   <si>
     <t>30153</t>
   </si>
   <si>
-    <t>1389</t>
-  </si>
-  <si>
-    <t>пассивный заработок +в интернете</t>
-  </si>
-  <si>
     <t>1384</t>
   </si>
   <si>
+    <t>пассивный заработок +в интернете +с вложениями</t>
+  </si>
+  <si>
+    <t>314</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с вложениями +с выводом</t>
+  </si>
+  <si>
+    <t>38994</t>
+  </si>
+  <si>
     <t>заработок пассивный доход</t>
   </si>
   <si>
     <t>303</t>
   </si>
   <si>
+    <t>пассивный заработок +с вложениями</t>
+  </si>
+  <si>
     <t>пассивный заработок денег</t>
   </si>
   <si>
+    <t>436</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с вложениями</t>
+  </si>
+  <si>
+    <t>46252</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с вложениями без обмана</t>
+  </si>
+  <si>
+    <t xml:space="preserve">пассивный заработок </t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>4994</t>
+  </si>
+  <si>
+    <t>реальный заработок +в интернете +с вложениями</t>
+  </si>
+  <si>
+    <t>6270</t>
+  </si>
+  <si>
+    <t>сайты +для заработка +в интернете +с вложениями</t>
+  </si>
+  <si>
+    <t>способы пассивного заработка</t>
+  </si>
+  <si>
+    <t>1455</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>способы заработка +с вложениями</t>
+  </si>
+  <si>
+    <t>793</t>
+  </si>
+  <si>
+    <t>проверенные заработки +в интернете +с вложениями</t>
+  </si>
+  <si>
+    <t>пассивный заработок +в интернете без вложений</t>
+  </si>
+  <si>
+    <t>848</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>быстрый заработок +в интернете +с вложениями</t>
+  </si>
+  <si>
+    <t>пассивный заработок без вложений</t>
+  </si>
+  <si>
+    <t>759</t>
+  </si>
+  <si>
+    <t>title:Способы заработка в интернете с вложениями, без обмана, с выводом реальных денег</t>
+  </si>
+  <si>
+    <t>title:Пассивный заработок денег в интернете, способы получения пассивного дохода</t>
+  </si>
+  <si>
+    <t>description:Для тех кто ищет заработок в интернете с вложениями, без обмана мы покажем проверенные способы заработка с вложениями и доступным реальным выводом денег</t>
+  </si>
+  <si>
+    <t>description:Мы покажем способы пассивного заработка денег в интернете, которые позволят вам получать доход без вложений своего времени и сил</t>
+  </si>
+  <si>
+    <t>h1:</t>
+  </si>
+  <si>
+    <t>схемы заработка</t>
+  </si>
+  <si>
+    <t>20758</t>
+  </si>
+  <si>
+    <t>белые схемы заработка</t>
+  </si>
+  <si>
+    <t>2854</t>
+  </si>
+  <si>
+    <t>простые схемы заработка</t>
+  </si>
+  <si>
+    <t>416,00</t>
+  </si>
+  <si>
+    <t>бесплатные схемы заработка</t>
+  </si>
+  <si>
+    <t>431</t>
+  </si>
+  <si>
+    <t>рабочая схема заработка</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>схемы заработка денег</t>
+  </si>
+  <si>
+    <t>615</t>
+  </si>
+  <si>
+    <t>схемы заработка без вложений</t>
+  </si>
+  <si>
+    <t>реальные способы заработка +в интернете</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>способы заработать деньги +в интернете</t>
+  </si>
+  <si>
+    <t>1958</t>
+  </si>
+  <si>
+    <t>почти точно</t>
+  </si>
+  <si>
+    <t>способы зарабатывать деньги +в интернете</t>
+  </si>
+  <si>
+    <t>способы заработать денег</t>
+  </si>
+  <si>
+    <t>5956</t>
+  </si>
+  <si>
+    <t>способы зарабатывать деньги</t>
+  </si>
+  <si>
+    <t>эффективные способы заработка</t>
+  </si>
+  <si>
+    <t>653</t>
+  </si>
+  <si>
+    <t>как заработать деньги способы заработка</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>разные способы заработать деньги</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>способы зарабатывать много денег</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>способы заработать много денег</t>
+  </si>
+  <si>
+    <t>реальный способ заработать деньги</t>
+  </si>
+  <si>
+    <t>лучшие способы заработка</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без вложений</t>
+  </si>
+  <si>
+    <t>796</t>
+  </si>
+  <si>
+    <t>104577</t>
+  </si>
+  <si>
+    <t>способы заработка +в интернете</t>
+  </si>
+  <si>
+    <t>8081</t>
+  </si>
+  <si>
+    <t>хороший заработок +в интернете без вложений</t>
+  </si>
+  <si>
+    <t>методы заработка</t>
+  </si>
+  <si>
+    <t>1523</t>
+  </si>
+  <si>
+    <t>ежедневный заработок +в интернете без вложений</t>
+  </si>
+  <si>
+    <t>1408</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без вложений +на киви</t>
+  </si>
+  <si>
+    <t>1625</t>
+  </si>
+  <si>
+    <t>title:Способы заработка денег в интернете, лучшие методы реального заработка</t>
+  </si>
+  <si>
+    <t>заработок денег +в интернете без вложений</t>
+  </si>
+  <si>
+    <t>32607</t>
+  </si>
+  <si>
+    <t>заработка +в интернете без вложений +с выводом</t>
+  </si>
+  <si>
+    <t>665</t>
+  </si>
+  <si>
+    <t>description:Мы поделимся с вами лучшими, а главное реальными способами заработка в интернете, вы найдете много разныз и эффективных методов заработать деньги</t>
+  </si>
+  <si>
+    <t>заработок новичку без вложений</t>
+  </si>
+  <si>
+    <t>650</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без вложений проверенные сайты</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>дополнительный заработок +в интернете без вложений</t>
+  </si>
+  <si>
+    <t>860</t>
+  </si>
+  <si>
+    <t>легкий заработок +в интернете без вложений</t>
+  </si>
+  <si>
+    <t>873</t>
+  </si>
+  <si>
+    <t>реальный заработок +в интернете без вложений отзывы</t>
+  </si>
+  <si>
+    <t>реальный заработок +в интернете без вложений</t>
+  </si>
+  <si>
+    <t>9457</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без вложений +в яндексе</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>как зарабатывать +в интернете дома без вложений</t>
+  </si>
+  <si>
+    <t>2 214</t>
+  </si>
+  <si>
+    <t>как можно заработать +в интернете без вложений</t>
+  </si>
+  <si>
+    <t>6281</t>
+  </si>
+  <si>
+    <t>как можно зарабатывать +в интернете без вложений</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title:Реальный заработок в интернете без вложений у себя дома, с выводом денег </t>
+  </si>
+  <si>
+    <t>заработок +в интернете +в социальных сетях</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>партнерские программы +для заработка</t>
+  </si>
+  <si>
+    <t>заработок +в социальных сетях</t>
+  </si>
+  <si>
+    <t>2 609</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>заработок +в соц сетях</t>
+  </si>
+  <si>
+    <t>партнерка заработок</t>
+  </si>
+  <si>
+    <t>1 138</t>
+  </si>
+  <si>
+    <t>4 314</t>
+  </si>
+  <si>
+    <t>заработок денег +в соц сетях</t>
+  </si>
+  <si>
+    <t>партнерские программы +для заработка +в интернете</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>681</t>
+  </si>
+  <si>
+    <t>партнерские программы +для заработка без +своего сайта</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +на социальных сетях</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>партнерские программы магазинов</t>
+  </si>
+  <si>
+    <t>1 703</t>
+  </si>
+  <si>
+    <t>онлайн партнерские программы</t>
+  </si>
+  <si>
+    <t>1 261</t>
+  </si>
+  <si>
+    <t>лучшие партнерские программы</t>
+  </si>
+  <si>
+    <t>заработок +в вк</t>
+  </si>
+  <si>
+    <t>1 145</t>
+  </si>
+  <si>
+    <t>3 386</t>
+  </si>
+  <si>
+    <t>заработок денег +в вк</t>
+  </si>
+  <si>
+    <t>как зарабатывать +на партнерских программах</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>1 091</t>
+  </si>
+  <si>
+    <t>как заработать +на партнерских программах</t>
+  </si>
+  <si>
+    <t>партнерские программы без сайта</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>обзор партнерских программ</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>каталог партнерских программ</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>популярные партнерские программы</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>партнерские программы 2020</t>
+  </si>
+  <si>
+    <t>464</t>
+  </si>
+  <si>
+    <t>топ партнерских программ</t>
+  </si>
+  <si>
+    <t>379</t>
+  </si>
+  <si>
+    <t>приложение +для заработка денег +на телефон</t>
+  </si>
+  <si>
+    <t>1397</t>
+  </si>
+  <si>
+    <t>приложения +для заработка +на телефоне</t>
+  </si>
+  <si>
+    <t>2118</t>
+  </si>
+  <si>
+    <t>заработок +в интернете без вложений +с телефона</t>
+  </si>
+  <si>
+    <t>6649</t>
+  </si>
+  <si>
+    <t>заработок +в интернете +с телефона</t>
+  </si>
+  <si>
+    <t>7506</t>
+  </si>
+  <si>
+    <t>скачать приложение +для заработка денег</t>
+  </si>
+  <si>
+    <t>1055</t>
+  </si>
+  <si>
+    <t>приложения +для заработка денег</t>
+  </si>
+  <si>
+    <t>11769</t>
+  </si>
+  <si>
+    <t>лучшие приложения +для заработка</t>
+  </si>
+  <si>
+    <t>1283</t>
+  </si>
+  <si>
+    <t>фриланс без опыта</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>приложения +для заработка +на андроид +с выводом</t>
+  </si>
+  <si>
+    <t>1302</t>
+  </si>
+  <si>
+    <t>приложение заработок денег +на андроид без вложений</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>биржа фриланса +для новичков +в россии</t>
+  </si>
+  <si>
+    <t>приложение +для заработка без вложений +на андроид</t>
+  </si>
+  <si>
+    <t>1581</t>
+  </si>
+  <si>
+    <t>фриланс работа</t>
+  </si>
+  <si>
+    <t>14764</t>
+  </si>
+  <si>
+    <t>приложение заработок денег без вложений +с выводом</t>
+  </si>
+  <si>
+    <t>1767</t>
+  </si>
+  <si>
+    <t>приложение +для заработка +с вложениями</t>
+  </si>
+  <si>
+    <t>1772</t>
+  </si>
+  <si>
+    <t>приложения +для заработка +в интернете</t>
+  </si>
+  <si>
+    <t>24048</t>
+  </si>
+  <si>
+    <t>приложения +для заработка денег +с выводом</t>
+  </si>
+  <si>
+    <t>2447</t>
+  </si>
+  <si>
+    <t>бесплатные приложения +для заработка</t>
+  </si>
+  <si>
+    <t>434</t>
+  </si>
+  <si>
+    <t>приложения +для заработка +на ios</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>заработок скачивая приложения +на андроид</t>
+  </si>
+  <si>
+    <t>приложения +для заработка +с выводом +на карту</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>реальные приложения +для заработка</t>
+  </si>
+  <si>
+    <t>779</t>
+  </si>
+  <si>
+    <t>приложения +для заработка +на айфон</t>
+  </si>
+  <si>
+    <t>799</t>
+  </si>
+  <si>
+    <t xml:space="preserve">заработок +на скачивании приложений	</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>мобильные приложения +для заработка</t>
+  </si>
+  <si>
+    <t>880</t>
+  </si>
+  <si>
+    <t>как зарабатывать +в интернете через телефон</t>
+  </si>
+  <si>
+    <t>6693</t>
+  </si>
+  <si>
+    <t>как заработать +в интернете через телефон</t>
+  </si>
+  <si>
+    <t>как заработать денег +в интернете +с телефона</t>
+  </si>
+  <si>
+    <t>4 725</t>
+  </si>
+  <si>
+    <t>арбитраж трафика начало</t>
+  </si>
+  <si>
+    <t>1877</t>
+  </si>
+  <si>
+    <t>арбитраж трафика отзывы +о заработке</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>арбитраж трафика</t>
+  </si>
+  <si>
+    <t>22727</t>
+  </si>
+  <si>
+    <t>заработок +на арбитраже трафика</t>
+  </si>
+  <si>
+    <t>356</t>
+  </si>
+  <si>
+    <t>арбитраж трафика инструкция</t>
+  </si>
+  <si>
+    <t>пошаговый арбитраж трафика</t>
+  </si>
+  <si>
+    <t>536</t>
+  </si>
+  <si>
+    <t>арбитраж трафика +как начать зарабатывать</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>как заработать +на арбитраже трафика</t>
+  </si>
+  <si>
+    <t>607</t>
+  </si>
+  <si>
+    <t>как зарабатывать +на арбитраже трафика</t>
+  </si>
+  <si>
+    <t>кейсы арбитраж трафика</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>сколько заработать арбитраж трафика</t>
+  </si>
+  <si>
+    <t>как заработать +на сайте</t>
+  </si>
+  <si>
+    <t>11112</t>
+  </si>
+  <si>
+    <t>создать сайт бесплатно +для заработка</t>
+  </si>
+  <si>
+    <t>1187</t>
+  </si>
+  <si>
+    <t>создать сайт самому +и зарабатывать</t>
+  </si>
+  <si>
+    <t>1225</t>
+  </si>
+  <si>
+    <t>создать сайт +и заработать +на +нем деньги</t>
+  </si>
+  <si>
+    <t>1395</t>
+  </si>
+  <si>
+    <t>создать сайт +и зарабатывать +на +нем деньги</t>
+  </si>
+  <si>
+    <t>создать сайт заработать бесплатно</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
+    <t>как создать сайт +и заработать +на +нем</t>
+  </si>
+  <si>
+    <t>2225</t>
+  </si>
+  <si>
+    <t>создать сайт +для заработка</t>
+  </si>
+  <si>
+    <t>2415</t>
+  </si>
+  <si>
+    <t>создать сайт +для заработка без вложений</t>
+  </si>
+  <si>
+    <t>создать сайт +для заработка денег +в интернете</t>
+  </si>
+  <si>
+    <t>294</t>
+  </si>
+  <si>
+    <t>какой сайт создать +для заработка</t>
+  </si>
+  <si>
+    <t>296</t>
+  </si>
+  <si>
+    <t>создать +свой сайт +с нуля +для заработка</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>создать бесплатный конструктор сайта +для заработка</t>
+  </si>
+  <si>
     <t>348</t>
   </si>
   <si>
-    <t xml:space="preserve">пассивный заработок </t>
-  </si>
-  <si>
-    <t>пассивный заработок +в интернете +с вложениями</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>4994</t>
-  </si>
-  <si>
-    <t>способы пассивного заработка</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с вложениями +с выводом</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>38994</t>
-  </si>
-  <si>
-    <t>пассивный заработок +с вложениями</t>
-  </si>
-  <si>
-    <t>пассивный заработок +в интернете без вложений</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>514</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с вложениями</t>
-  </si>
-  <si>
-    <t>46252</t>
-  </si>
-  <si>
-    <t>пассивный заработок без вложений</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +для новичка</t>
-  </si>
-  <si>
-    <t>759</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с вложениями без обмана</t>
-  </si>
-  <si>
-    <t>635</t>
-  </si>
-  <si>
-    <t>11369</t>
-  </si>
-  <si>
-    <t>реальный заработок +в интернете +с вложениями</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +для начинающих</t>
-  </si>
-  <si>
-    <t>6270</t>
-  </si>
-  <si>
-    <t>952</t>
-  </si>
-  <si>
-    <t>сайты +для заработка +в интернете +с вложениями</t>
-  </si>
-  <si>
-    <t>1455</t>
-  </si>
-  <si>
-    <t>заработок +в интернете отзывы</t>
-  </si>
-  <si>
-    <t>способы заработка +с вложениями</t>
-  </si>
-  <si>
-    <t>10619</t>
-  </si>
-  <si>
-    <t>793</t>
-  </si>
-  <si>
-    <t>заработок киви денег +в интернете</t>
-  </si>
-  <si>
-    <t>проверенные заработки +в интернете +с вложениями</t>
-  </si>
-  <si>
-    <t>1106</t>
-  </si>
-  <si>
-    <t>848</t>
-  </si>
-  <si>
-    <t>курсы +по заработку +в интернете</t>
-  </si>
-  <si>
-    <t>быстрый заработок +в интернете +с вложениями</t>
-  </si>
-  <si>
-    <t>1130</t>
-  </si>
-  <si>
-    <t>903</t>
-  </si>
-  <si>
-    <t xml:space="preserve">честный заработок +в интернете	</t>
-  </si>
-  <si>
-    <t>1214</t>
-  </si>
-  <si>
-    <t>10 заработка +в интернете</t>
-  </si>
-  <si>
-    <t>1232</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +на играх</t>
-  </si>
-  <si>
-    <t>1296</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +как зарабатывать</t>
-  </si>
-  <si>
-    <t>1322</t>
-  </si>
-  <si>
-    <t>заработок +в интернете через интернет</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +как заработать</t>
-  </si>
-  <si>
-    <t>1326</t>
-  </si>
-  <si>
-    <t>виды заработка +в интернете</t>
-  </si>
-  <si>
-    <t>1485</t>
-  </si>
-  <si>
-    <t>заработок +в интернете деньги +на карту</t>
-  </si>
-  <si>
-    <t>14882</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с выводом +на карту</t>
-  </si>
-  <si>
-    <t>15139</t>
-  </si>
-  <si>
-    <t>онлайн заработок +в интернете</t>
-  </si>
-  <si>
-    <t>1559</t>
-  </si>
-  <si>
-    <t>работа заработок +в интернете</t>
-  </si>
-  <si>
-    <t>1560</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +на карту</t>
-  </si>
-  <si>
-    <t>15912</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +для школьников</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с ежедневной оплатой</t>
-  </si>
-  <si>
-    <t>1623</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с выводом +на киви</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>реальный заработок +в интернете</t>
-  </si>
-  <si>
-    <t>16486</t>
-  </si>
-  <si>
-    <t>сервисы +для заработка +в интернете</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>про заработок +в интернете</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>заработок +в интернете обман</t>
-  </si>
-  <si>
-    <t>18518</t>
-  </si>
-  <si>
-    <t>заработок +в интернете</t>
-  </si>
-  <si>
-    <t>267531</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +в социальных сетях</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>способы заработка +в интернете новичку</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с выводом денег</t>
-  </si>
-  <si>
-    <t>31768</t>
-  </si>
-  <si>
-    <t>заработок +в интернете 1000</t>
-  </si>
-  <si>
-    <t>3689</t>
-  </si>
-  <si>
-    <t>толока заработок +в интернете</t>
-  </si>
-  <si>
-    <t>3690</t>
-  </si>
-  <si>
-    <t>заработок денег +в интернете</t>
-  </si>
-  <si>
-    <t>39359</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с выводом</t>
-  </si>
-  <si>
-    <t>43122</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +на дому</t>
-  </si>
-  <si>
-    <t>10100</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без</t>
-  </si>
-  <si>
-    <t>106479</t>
-  </si>
-  <si>
-    <t>заработок реальных денег +в интернете</t>
-  </si>
-  <si>
-    <t>6008</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +на карту сбербанка</t>
-  </si>
-  <si>
-    <t>6066</t>
-  </si>
-  <si>
-    <t>лучшие сайты +для заработка +в интернете</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без вложений толока</t>
-  </si>
-  <si>
-    <t>1213</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без вложений +в яндексе</t>
-  </si>
-  <si>
-    <t>1390</t>
-  </si>
-  <si>
-    <t>заработок +в интернете игры +с выводом</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>реальный заработок +в интернете +с выводом</t>
-  </si>
-  <si>
-    <t>7095</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +на дому без обмана</t>
-  </si>
-  <si>
-    <t>1410</t>
-  </si>
-  <si>
-    <t>заработок +в социальных сетях</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без обмана</t>
-  </si>
-  <si>
-    <t>18364</t>
-  </si>
-  <si>
-    <t>заработок без денег +в интернете</t>
-  </si>
-  <si>
-    <t>32943</t>
-  </si>
-  <si>
-    <t>где заработать денег +в интернете</t>
-  </si>
-  <si>
-    <t>7623</t>
-  </si>
-  <si>
-    <t>где зарабатывать деньги +в интернете</t>
-  </si>
-  <si>
-    <t>способы заработка +для новичков</t>
-  </si>
-  <si>
-    <t>282</t>
-  </si>
-  <si>
-    <t>суть заработка +в интернете</t>
-  </si>
-  <si>
-    <t>806</t>
-  </si>
-  <si>
-    <t>заработок +в интернете помощь</t>
-  </si>
-  <si>
-    <t>810</t>
-  </si>
-  <si>
-    <t>как зарабатывать деньги +в интернете</t>
-  </si>
-  <si>
-    <t>81411</t>
-  </si>
-  <si>
-    <t>биржа заработок +в интернете</t>
-  </si>
-  <si>
-    <t>825</t>
-  </si>
-  <si>
-    <t>заработки +в интернете +в день</t>
-  </si>
-  <si>
-    <t>8374</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +на qiwi кошелек</t>
-  </si>
-  <si>
-    <t>838</t>
-  </si>
-  <si>
-    <t>заработок денег +в интернете +на опросах</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без телефона</t>
-  </si>
-  <si>
-    <t>6992</t>
-  </si>
-  <si>
-    <t>сайты +для заработка +в интернете</t>
-  </si>
-  <si>
-    <t>7120</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +на опросах +с выводом</t>
-  </si>
-  <si>
-    <t>879</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с нуля</t>
-  </si>
-  <si>
-    <t>886</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без сайта</t>
-  </si>
-  <si>
-    <t>6408</t>
-  </si>
-  <si>
-    <t>быстрый заработок +в интернете +с выводом</t>
-  </si>
-  <si>
-    <t>922</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +на просмотре</t>
-  </si>
-  <si>
-    <t>929</t>
-  </si>
-  <si>
-    <t>сайт заработок +в интернете без обмана</t>
-  </si>
-  <si>
-    <t>885</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без рекламы</t>
-  </si>
-  <si>
-    <t>автоматический заработок +в интернете</t>
-  </si>
-  <si>
-    <t>934</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без регистрации</t>
-  </si>
-  <si>
-    <t>931</t>
-  </si>
-  <si>
-    <t>заработок денег +в интернете без обмана</t>
-  </si>
-  <si>
-    <t>9647</t>
-  </si>
-  <si>
-    <t>реальный заработок +в интернете без</t>
-  </si>
-  <si>
-    <t>9891</t>
-  </si>
-  <si>
-    <t>заработок +в интернете 1000 рублей +в день</t>
-  </si>
-  <si>
-    <t>993</t>
-  </si>
-  <si>
-    <t>реальные способы заработка +в интернете</t>
-  </si>
-  <si>
-    <t>схемы заработка</t>
-  </si>
-  <si>
-    <t>1339</t>
-  </si>
-  <si>
-    <t>20758</t>
-  </si>
-  <si>
-    <t>способы заработать деньги +в интернете</t>
-  </si>
-  <si>
-    <t>белые схемы заработка</t>
-  </si>
-  <si>
-    <t>1958</t>
-  </si>
-  <si>
-    <t>2854</t>
-  </si>
-  <si>
-    <t>способы зарабатывать деньги +в интернете</t>
-  </si>
-  <si>
-    <t>простые схемы заработка</t>
-  </si>
-  <si>
-    <t>416,00</t>
-  </si>
-  <si>
-    <t>способы заработать денег</t>
-  </si>
-  <si>
-    <t>бесплатные схемы заработка</t>
-  </si>
-  <si>
-    <t>5956</t>
-  </si>
-  <si>
-    <t>431</t>
-  </si>
-  <si>
-    <t>способы зарабатывать деньги</t>
-  </si>
-  <si>
-    <t>рабочая схема заработка</t>
-  </si>
-  <si>
-    <t>508</t>
-  </si>
-  <si>
-    <t>эффективные способы заработка</t>
-  </si>
-  <si>
-    <t>схемы заработка денег</t>
-  </si>
-  <si>
-    <t>653</t>
-  </si>
-  <si>
-    <t>615</t>
-  </si>
-  <si>
-    <t>как заработать деньги способы заработка</t>
-  </si>
-  <si>
-    <t>684</t>
-  </si>
-  <si>
-    <t>схемы заработка без вложений</t>
-  </si>
-  <si>
-    <t>разные способы заработать деньги</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>способы зарабатывать много денег</t>
-  </si>
-  <si>
-    <t>708</t>
-  </si>
-  <si>
-    <t>способы заработать много денег</t>
-  </si>
-  <si>
-    <t>709</t>
-  </si>
-  <si>
-    <t>реальный способ заработать деньги</t>
-  </si>
-  <si>
-    <t>лучшие способы заработка</t>
-  </si>
-  <si>
-    <t>796</t>
-  </si>
-  <si>
-    <t>способы заработка +в интернете</t>
-  </si>
-  <si>
-    <t>8081</t>
-  </si>
-  <si>
-    <t>методы заработка</t>
-  </si>
-  <si>
-    <t>1523</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без вложений</t>
-  </si>
-  <si>
-    <t>104577</t>
-  </si>
-  <si>
-    <t>хороший заработок +в интернете без вложений</t>
-  </si>
-  <si>
-    <t>ежедневный заработок +в интернете без вложений</t>
-  </si>
-  <si>
-    <t>1408</t>
-  </si>
-  <si>
-    <t>приложение +для заработка денег +на телефон</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без вложений школьнику</t>
-  </si>
-  <si>
-    <t>1511</t>
-  </si>
-  <si>
-    <t>1397</t>
-  </si>
-  <si>
-    <t>приложения +для заработка +на телефоне</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без вложений +на киви</t>
-  </si>
-  <si>
-    <t>2118</t>
-  </si>
-  <si>
-    <t>1625</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без вложений +с телефона</t>
-  </si>
-  <si>
-    <t>6649</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +с телефона</t>
-  </si>
-  <si>
-    <t>7506</t>
-  </si>
-  <si>
-    <t>скачать приложение +для заработка денег</t>
-  </si>
-  <si>
-    <t>1055</t>
-  </si>
-  <si>
-    <t>приложения +для заработка денег</t>
-  </si>
-  <si>
-    <t>11769</t>
-  </si>
-  <si>
-    <t>лучшие приложения +для заработка</t>
-  </si>
-  <si>
-    <t>1283</t>
-  </si>
-  <si>
-    <t>заработок +на социальных сетях без вложений</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>приложения +для заработка +на андроид +с выводом</t>
-  </si>
-  <si>
-    <t>1302</t>
-  </si>
-  <si>
-    <t>способ заработка +в интернете без вложений новичку</t>
-  </si>
-  <si>
-    <t>приложение заработок денег +на андроид без вложений</t>
-  </si>
-  <si>
-    <t>1430</t>
-  </si>
-  <si>
-    <t>заработок денег +в интернете без вложений</t>
-  </si>
-  <si>
-    <t>приложение +для заработка без вложений +на андроид</t>
-  </si>
-  <si>
-    <t>1581</t>
-  </si>
-  <si>
-    <t>32607</t>
-  </si>
-  <si>
-    <t>приложение заработок денег без вложений +с выводом</t>
-  </si>
-  <si>
-    <t>1767</t>
-  </si>
-  <si>
-    <t>заработка +в интернете без вложений +с выводом</t>
-  </si>
-  <si>
-    <t>38861</t>
-  </si>
-  <si>
-    <t>приложение +для заработка +с вложениями</t>
-  </si>
-  <si>
-    <t>1772</t>
-  </si>
-  <si>
-    <t>яндекс толока заработок +в интернете без вложений</t>
-  </si>
-  <si>
-    <t>приложения +для заработка +в интернете</t>
-  </si>
-  <si>
-    <t>24048</t>
-  </si>
-  <si>
-    <t>приложения +для заработка денег +с выводом</t>
-  </si>
-  <si>
-    <t>заработок +в интернете +для новичков без вложений</t>
-  </si>
-  <si>
-    <t>2447</t>
-  </si>
-  <si>
-    <t>434</t>
-  </si>
-  <si>
-    <t>бесплатные приложения +для заработка</t>
-  </si>
-  <si>
-    <t>заработок без вложения +для новичков</t>
-  </si>
-  <si>
-    <t>493</t>
-  </si>
-  <si>
-    <t>приложения +для заработка +на ios</t>
-  </si>
-  <si>
-    <t>заработок новичку без вложений</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>680</t>
-  </si>
-  <si>
-    <t>заработок +в интернете без вложений проверенные сайты</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>заработок скачивая приложения +на андроид</t>
-  </si>
-  <si>
-    <t>дополнительный заработок +в интернете без вложений</t>
-  </si>
-  <si>
-    <t>приложения +для заработка +с выводом +на карту</t>
-  </si>
-  <si>
-    <t>715</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>реальные приложения +для заработка</t>
-  </si>
-  <si>
-    <t>779</t>
-  </si>
-  <si>
-    <t>легкий заработок +в интернете без вложений</t>
-  </si>
-  <si>
-    <t>873</t>
-  </si>
-  <si>
-    <t>приложения +для заработка +на айфон</t>
-  </si>
-  <si>
-    <t>799</t>
-  </si>
-  <si>
-    <t>реальный заработок +в интернете без вложений отзывы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">заработок +на скачивании приложений	</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>реальный заработок +в интернете без вложений</t>
-  </si>
-  <si>
-    <t>9457</t>
-  </si>
-  <si>
-    <t>мобильные приложения +для заработка</t>
-  </si>
-  <si>
-    <t>880</t>
-  </si>
-  <si>
-    <t>фриланс без опыта</t>
-  </si>
-  <si>
-    <t>1235</t>
-  </si>
-  <si>
-    <t>биржа фриланса +для новичков +в россии</t>
-  </si>
-  <si>
-    <t>фриланс работа</t>
-  </si>
-  <si>
-    <t>14764</t>
+    <t>создать сайт +для заработка +в интернете</t>
+  </si>
+  <si>
+    <t>372</t>
+  </si>
+  <si>
+    <t>создать сайт бесплатно +с телефона +для заработка</t>
+  </si>
+  <si>
+    <t>432</t>
+  </si>
+  <si>
+    <t>создать сайт +для заработка денег</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>создать сайт бесплатно самому +для заработка</t>
+  </si>
+  <si>
+    <t>864</t>
+  </si>
+  <si>
+    <t>создать сайт самому +для заработка</t>
+  </si>
+  <si>
+    <t>877</t>
   </si>
   <si>
     <t>фриланс топ</t>
@@ -906,96 +1356,36 @@
     <t>1662</t>
   </si>
   <si>
-    <t>арбитраж трафика начало</t>
-  </si>
-  <si>
-    <t>1877</t>
-  </si>
-  <si>
     <t>фриланс биржа +для начинающих</t>
   </si>
   <si>
     <t>2117</t>
   </si>
   <si>
-    <t>арбитраж трафика отзывы +о заработке</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
     <t>фриланса +для новичков бесплатно</t>
   </si>
   <si>
-    <t>арбитраж трафика</t>
-  </si>
-  <si>
-    <t>22727</t>
-  </si>
-  <si>
-    <t>заработок +на арбитраже трафика</t>
-  </si>
-  <si>
-    <t>356</t>
-  </si>
-  <si>
     <t>как заработать +на фрилансе</t>
   </si>
   <si>
-    <t>арбитраж трафика инструкция</t>
-  </si>
-  <si>
     <t>2351</t>
   </si>
   <si>
-    <t>пошаговый арбитраж трафика</t>
-  </si>
-  <si>
-    <t>536</t>
-  </si>
-  <si>
     <t>заработок +в интернете фриланс</t>
   </si>
   <si>
-    <t>арбитраж трафика +как начать зарабатывать</t>
-  </si>
-  <si>
     <t>285</t>
   </si>
   <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>как заработать +на арбитраже трафика</t>
-  </si>
-  <si>
-    <t>607</t>
-  </si>
-  <si>
     <t>заработок +на фрилансе</t>
   </si>
   <si>
-    <t>как зарабатывать +на арбитраже трафика</t>
-  </si>
-  <si>
-    <t>кейсы арбитраж трафика</t>
-  </si>
-  <si>
     <t>список фриланс</t>
   </si>
   <si>
-    <t>704</t>
-  </si>
-  <si>
     <t>728</t>
   </si>
   <si>
-    <t>сколько заработать арбитраж трафика</t>
-  </si>
-  <si>
-    <t>960</t>
-  </si>
-  <si>
     <t>фриланс биржа +для начинающих бесплатно</t>
   </si>
   <si>
@@ -1012,105 +1402,6 @@
   </si>
   <si>
     <t>986</t>
-  </si>
-  <si>
-    <t>как заработать +на сайте</t>
-  </si>
-  <si>
-    <t>11112</t>
-  </si>
-  <si>
-    <t>создать сайт бесплатно +для заработка</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>создать сайт самому +и зарабатывать</t>
-  </si>
-  <si>
-    <t>1225</t>
-  </si>
-  <si>
-    <t>создать сайт +и заработать +на +нем деньги</t>
-  </si>
-  <si>
-    <t>1395</t>
-  </si>
-  <si>
-    <t>создать сайт +и зарабатывать +на +нем деньги</t>
-  </si>
-  <si>
-    <t>создать сайт заработать бесплатно</t>
-  </si>
-  <si>
-    <t>1544</t>
-  </si>
-  <si>
-    <t>как создать сайт +и заработать +на +нем</t>
-  </si>
-  <si>
-    <t>2225</t>
-  </si>
-  <si>
-    <t>создать сайт +для заработка</t>
-  </si>
-  <si>
-    <t>2415</t>
-  </si>
-  <si>
-    <t>создать сайт +для заработка без вложений</t>
-  </si>
-  <si>
-    <t>создать сайт +для заработка денег +в интернете</t>
-  </si>
-  <si>
-    <t>294</t>
-  </si>
-  <si>
-    <t>какой сайт создать +для заработка</t>
-  </si>
-  <si>
-    <t>296</t>
-  </si>
-  <si>
-    <t>создать +свой сайт +с нуля +для заработка</t>
-  </si>
-  <si>
-    <t>331</t>
-  </si>
-  <si>
-    <t>создать бесплатный конструктор сайта +для заработка</t>
-  </si>
-  <si>
-    <t>создать сайт +для заработка +в интернете</t>
-  </si>
-  <si>
-    <t>372</t>
-  </si>
-  <si>
-    <t>создать сайт бесплатно +с телефона +для заработка</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>создать сайт +для заработка денег</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>создать сайт бесплатно самому +для заработка</t>
-  </si>
-  <si>
-    <t>864</t>
-  </si>
-  <si>
-    <t>создать сайт самому +для заработка</t>
-  </si>
-  <si>
-    <t>877</t>
   </si>
 </sst>
 </file>
@@ -1127,13 +1418,13 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1142,8 +1433,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF63D297"/>
+        <bgColor rgb="FF63D297"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFEEEEEE"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CB4D"/>
+        <bgColor rgb="FFF7CB4D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -1153,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1163,18 +1472,41 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1183,6 +1515,30 @@
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1430,82 +1786,80 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>22</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11">
@@ -1513,482 +1867,260 @@
         <v>56</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="4"/>
+      <c r="B28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="B29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="B30" s="5"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>96</v>
-      </c>
+      <c r="B31" s="5"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="B32" s="5"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="B33" s="5"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="B34" s="5"/>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>104</v>
-      </c>
+      <c r="B35" s="5"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="B36" s="5"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="B37" s="5"/>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="B38" s="5"/>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="B39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>114</v>
-      </c>
+      <c r="B40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>116</v>
-      </c>
+      <c r="B41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="B42" s="5"/>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>120</v>
-      </c>
+      <c r="B43" s="5"/>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>122</v>
-      </c>
+      <c r="B44" s="5"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>124</v>
-      </c>
+      <c r="B45" s="5"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>126</v>
-      </c>
+      <c r="B46" s="5"/>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="B47" s="5"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>128</v>
-      </c>
+      <c r="B48" s="5"/>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="4"/>
+      <c r="B49" s="5"/>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>133</v>
-      </c>
+      <c r="B50" s="5"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>135</v>
-      </c>
+      <c r="B51" s="5"/>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="B52" s="5"/>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="B53" s="5"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>141</v>
-      </c>
+      <c r="B54" s="5"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="B55" s="5"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="B56" s="5"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="B57" s="5"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>149</v>
-      </c>
+      <c r="B58" s="5"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>151</v>
-      </c>
+      <c r="B59" s="5"/>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="B60" s="5"/>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>155</v>
-      </c>
+      <c r="B61" s="5"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>157</v>
-      </c>
+      <c r="B62" s="5"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>159</v>
-      </c>
+      <c r="B63" s="5"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>161</v>
-      </c>
+      <c r="B64" s="5"/>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="B65" s="5"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>164</v>
-      </c>
+      <c r="B66" s="5"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>166</v>
-      </c>
+      <c r="B67" s="5"/>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>168</v>
-      </c>
+      <c r="B68" s="5"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="B69" s="5"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="B70" s="5"/>
     </row>
     <row r="71">
       <c r="B71" s="5"/>
@@ -7147,262 +7279,1050 @@
     <row r="1789">
       <c r="B1789" s="5"/>
     </row>
-    <row r="1790">
-      <c r="B1790" s="5"/>
-    </row>
-    <row r="1791">
-      <c r="B1791" s="5"/>
-    </row>
-    <row r="1792">
-      <c r="B1792" s="5"/>
-    </row>
-    <row r="1793">
-      <c r="B1793" s="5"/>
-    </row>
-    <row r="1794">
-      <c r="B1794" s="5"/>
-    </row>
-    <row r="1795">
-      <c r="B1795" s="5"/>
-    </row>
-    <row r="1796">
-      <c r="B1796" s="5"/>
-    </row>
-    <row r="1797">
-      <c r="B1797" s="5"/>
-    </row>
-    <row r="1798">
-      <c r="B1798" s="5"/>
-    </row>
-    <row r="1799">
-      <c r="B1799" s="5"/>
-    </row>
-    <row r="1800">
-      <c r="B1800" s="5"/>
-    </row>
-    <row r="1801">
-      <c r="B1801" s="5"/>
-    </row>
-    <row r="1802">
-      <c r="B1802" s="5"/>
-    </row>
-    <row r="1803">
-      <c r="B1803" s="5"/>
-    </row>
-    <row r="1804">
-      <c r="B1804" s="5"/>
-    </row>
-    <row r="1805">
-      <c r="B1805" s="5"/>
-    </row>
-    <row r="1806">
-      <c r="B1806" s="5"/>
-    </row>
-    <row r="1807">
-      <c r="B1807" s="5"/>
-    </row>
-    <row r="1808">
-      <c r="B1808" s="5"/>
-    </row>
-    <row r="1809">
-      <c r="B1809" s="5"/>
-    </row>
-    <row r="1810">
-      <c r="B1810" s="5"/>
-    </row>
-    <row r="1811">
-      <c r="B1811" s="5"/>
-    </row>
-    <row r="1812">
-      <c r="B1812" s="5"/>
-    </row>
-    <row r="1813">
-      <c r="B1813" s="5"/>
-    </row>
-    <row r="1814">
-      <c r="B1814" s="5"/>
-    </row>
-    <row r="1815">
-      <c r="B1815" s="5"/>
-    </row>
-    <row r="1816">
-      <c r="B1816" s="5"/>
-    </row>
-    <row r="1817">
-      <c r="B1817" s="5"/>
-    </row>
-    <row r="1818">
-      <c r="B1818" s="5"/>
-    </row>
-    <row r="1819">
-      <c r="B1819" s="5"/>
-    </row>
-    <row r="1820">
-      <c r="B1820" s="5"/>
-    </row>
-    <row r="1821">
-      <c r="B1821" s="5"/>
-    </row>
-    <row r="1822">
-      <c r="B1822" s="5"/>
-    </row>
-    <row r="1823">
-      <c r="B1823" s="5"/>
-    </row>
-    <row r="1824">
-      <c r="B1824" s="5"/>
-    </row>
-    <row r="1825">
-      <c r="B1825" s="5"/>
-    </row>
-    <row r="1826">
-      <c r="B1826" s="5"/>
-    </row>
-    <row r="1827">
-      <c r="B1827" s="5"/>
-    </row>
-    <row r="1828">
-      <c r="B1828" s="5"/>
-    </row>
-    <row r="1829">
-      <c r="B1829" s="5"/>
-    </row>
-    <row r="1830">
-      <c r="B1830" s="5"/>
-    </row>
-    <row r="1831">
-      <c r="B1831" s="5"/>
-    </row>
-    <row r="1832">
-      <c r="B1832" s="5"/>
-    </row>
-    <row r="1833">
-      <c r="B1833" s="5"/>
-    </row>
-    <row r="1834">
-      <c r="B1834" s="5"/>
-    </row>
-    <row r="1835">
-      <c r="B1835" s="5"/>
-    </row>
-    <row r="1836">
-      <c r="B1836" s="5"/>
-    </row>
-    <row r="1837">
-      <c r="B1837" s="5"/>
-    </row>
-    <row r="1838">
-      <c r="B1838" s="5"/>
-    </row>
-    <row r="1839">
-      <c r="B1839" s="5"/>
-    </row>
-    <row r="1840">
-      <c r="B1840" s="5"/>
-    </row>
-    <row r="1841">
-      <c r="B1841" s="5"/>
-    </row>
-    <row r="1842">
-      <c r="B1842" s="5"/>
-    </row>
-    <row r="1843">
-      <c r="B1843" s="5"/>
-    </row>
-    <row r="1844">
-      <c r="B1844" s="5"/>
-    </row>
-    <row r="1845">
-      <c r="B1845" s="5"/>
-    </row>
-    <row r="1846">
-      <c r="B1846" s="5"/>
-    </row>
-    <row r="1847">
-      <c r="B1847" s="5"/>
-    </row>
-    <row r="1848">
-      <c r="B1848" s="5"/>
-    </row>
-    <row r="1849">
-      <c r="B1849" s="5"/>
-    </row>
-    <row r="1850">
-      <c r="B1850" s="5"/>
-    </row>
-    <row r="1851">
-      <c r="B1851" s="5"/>
-    </row>
-    <row r="1852">
-      <c r="B1852" s="5"/>
-    </row>
-    <row r="1853">
-      <c r="B1853" s="5"/>
-    </row>
-    <row r="1854">
-      <c r="B1854" s="5"/>
-    </row>
-    <row r="1855">
-      <c r="B1855" s="5"/>
-    </row>
-    <row r="1856">
-      <c r="B1856" s="5"/>
-    </row>
-    <row r="1857">
-      <c r="B1857" s="5"/>
-    </row>
-    <row r="1858">
-      <c r="B1858" s="5"/>
-    </row>
-    <row r="1859">
-      <c r="B1859" s="5"/>
-    </row>
-    <row r="1860">
-      <c r="B1860" s="5"/>
-    </row>
-    <row r="1861">
-      <c r="B1861" s="5"/>
-    </row>
-    <row r="1862">
-      <c r="B1862" s="5"/>
-    </row>
-    <row r="1863">
-      <c r="B1863" s="5"/>
-    </row>
-    <row r="1864">
-      <c r="B1864" s="5"/>
-    </row>
-    <row r="1865">
-      <c r="B1865" s="5"/>
-    </row>
-    <row r="1866">
-      <c r="B1866" s="5"/>
-    </row>
-    <row r="1867">
-      <c r="B1867" s="5"/>
-    </row>
-    <row r="1868">
-      <c r="B1868" s="5"/>
-    </row>
-    <row r="1869">
-      <c r="B1869" s="5"/>
-    </row>
-    <row r="1870">
-      <c r="B1870" s="5"/>
-    </row>
-    <row r="1871">
-      <c r="B1871" s="5"/>
-    </row>
-    <row r="1872">
-      <c r="B1872" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$A$1872"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="58.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="58.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="58.14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:D24"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="58.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="43.57"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="43.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -7418,167 +8338,181 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>330</v>
+        <v>404</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>405</v>
+      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>332</v>
+        <v>406</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>407</v>
+      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>409</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>411</v>
+      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>411</v>
+      </c>
+      <c r="C5" s="1"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>339</v>
+        <v>413</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>414</v>
+      </c>
+      <c r="C6" s="1"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>341</v>
+        <v>415</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>416</v>
+      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>343</v>
+        <v>417</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>418</v>
+      </c>
+      <c r="C8" s="1"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="C9" s="1"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>346</v>
+        <v>420</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>421</v>
+      </c>
+      <c r="C10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>423</v>
+      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>425</v>
+      </c>
+      <c r="C12" s="1"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4"/>
+        <v>427</v>
+      </c>
+      <c r="C13" s="1"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>353</v>
+        <v>428</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="C14" s="4"/>
+        <v>429</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>355</v>
+        <v>430</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="C15" s="4"/>
+        <v>431</v>
+      </c>
+      <c r="C15" s="1"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="C16" s="4"/>
+        <v>433</v>
+      </c>
+      <c r="C16" s="1"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>359</v>
+        <v>434</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="C17" s="4"/>
+        <v>435</v>
+      </c>
+      <c r="C17" s="1"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C18" s="4"/>
+        <v>437</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7593,66 +8527,198 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="58.0"/>
+    <col customWidth="1" min="1" max="1" width="58.29"/>
+    <col customWidth="1" min="4" max="4" width="91.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7667,98 +8733,123 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="58.0"/>
+    <col customWidth="1" min="1" max="1" width="58.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+      <c r="C2" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>35</v>
+      </c>
+      <c r="C5" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>51</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7778,61 +8869,151 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>124</v>
+      </c>
+      <c r="C1" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>129</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>183</v>
+        <v>131</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>187</v>
+        <v>135</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
+        <v>139</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>194</v>
+        <v>141</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>146</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7847,123 +9028,387 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="58.0"/>
+    <col customWidth="1" min="1" max="1" width="58.29"/>
+    <col customWidth="1" min="5" max="5" width="57.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>173</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>175</v>
+        <v>101</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>179</v>
+        <v>103</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>179</v>
+        <v>104</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>184</v>
+        <v>106</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>186</v>
+        <v>107</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>186</v>
+        <v>109</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>110</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>193</v>
+        <v>111</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>196</v>
+        <v>112</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>199</v>
+        <v>114</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>203</v>
+        <v>119</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>151</v>
+        <v>122</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>206</v>
+        <v>126</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>207</v>
+        <v>128</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>208</v>
+        <v>101</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>210</v>
+        <v>133</v>
       </c>
       <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="$A$1:$A$31"/>
+  <mergeCells count="2">
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -7978,208 +9423,128 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="58.14"/>
+    <col customWidth="1" min="1" max="1" width="58.0"/>
+    <col customWidth="1" min="4" max="4" width="53.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1.0</v>
+        <v>180</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>1.0</v>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.0</v>
+        <v>190</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1.0</v>
+        <v>197</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
+        <v>203</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
+        <v>209</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.0</v>
+        <v>212</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
+      <c r="A14" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
+      <c r="A15" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
+      <c r="A16" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8194,244 +9559,155 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="58.43"/>
+    <col customWidth="1" min="1" max="1" width="58.0"/>
+    <col customWidth="1" min="4" max="4" width="94.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>181</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>184</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>191</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>228</v>
+        <v>192</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1.0</v>
+        <v>193</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0</v>
+        <v>194</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1.0</v>
+        <v>199</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>236</v>
+        <v>200</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.0</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.0</v>
+        <v>205</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.0</v>
+        <v>208</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C12" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1.0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1.0</v>
+      <c r="A17" s="6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.0</v>
+      <c r="A18" s="8" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8446,122 +9722,80 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.57"/>
+    <col customWidth="1" min="1" max="1" width="58.14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>286</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>287</v>
+        <v>220</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>288</v>
+        <v>222</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>289</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>290</v>
+        <v>224</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>292</v>
+        <v>226</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>293</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>296</v>
+        <v>228</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>297</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>300</v>
+        <v>230</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>329</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -8576,109 +9810,167 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="43.43"/>
+    <col customWidth="1" min="1" max="1" width="58.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C1" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>298</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C2" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C5" s="4"/>
+        <v>238</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>308</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C6" s="4"/>
+        <v>241</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C7" s="4"/>
+        <v>242</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>314</v>
+        <v>244</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" s="4"/>
+        <v>245</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>317</v>
+        <v>246</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C9" s="4"/>
+        <v>247</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" s="4"/>
+        <v>248</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>322</v>
+        <v>249</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C11" s="4"/>
+        <v>162</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>